--- a/2014134052.xlsx
+++ b/2014134052.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\산103-12\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K\Documents\GitHub\shingu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="예제 1" sheetId="1" r:id="rId1"/>
@@ -1376,25 +1376,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1413,6 +1410,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1708,17 +1708,17 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
@@ -1923,7 +1923,7 @@
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="27" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="6">
@@ -1952,7 +1952,7 @@
       <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="6">
         <f t="shared" ref="G11:G14" si="3">SUMIFS($C$3:$C$16,$A$3:$A$16,E11,$B$3:$B$16,$F$10)</f>
         <v>7001</v>
@@ -1979,7 +1979,7 @@
       <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="6">
         <f t="shared" si="3"/>
         <v>17252</v>
@@ -2006,7 +2006,7 @@
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="6">
         <f t="shared" si="3"/>
         <v>729</v>
@@ -2033,7 +2033,7 @@
       <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="6">
         <f t="shared" si="3"/>
         <v>3079</v>
@@ -2096,20 +2096,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C3" s="21">
         <f ca="1">TODAY()</f>
-        <v>42264</v>
+        <v>42282</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="F6" s="2">
         <f ca="1">DATEDIF(C6,$C$3,"D")</f>
-        <v>5603</v>
+        <v>5621</v>
       </c>
       <c r="G6" s="2" t="str">
         <f ca="1">DATEDIF(C6,$C$3,"Y") &amp; "년 "&amp;DATEDIF(C6,$C$3,"YM")&amp;"개월"</f>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="H6" s="2" t="str">
         <f ca="1">DATEDIF(C6,$C$3,"Y")&amp;"년 "&amp;DATEDIF(C6,$C$3,"YM")&amp; "개월 " &amp;DATEDIF(C6,$C$3,"MD")&amp; "일"</f>
-        <v>15년 4개월 2일</v>
+        <v>15년 4개월 20일</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" ref="F7:F10" ca="1" si="2">DATEDIF(C7,$C$3,"D")</f>
-        <v>5944</v>
+        <v>5962</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" ref="G7:G10" ca="1" si="3">DATEDIF(C7,$C$3,"Y") &amp; "년 "&amp;DATEDIF(C7,$C$3,"YM")&amp;"개월"</f>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" ref="H7:H10" ca="1" si="4">DATEDIF(C7,$C$3,"Y")&amp;"년 "&amp;DATEDIF(C7,$C$3,"YM")&amp; "개월 " &amp;DATEDIF(C7,$C$3,"MD")&amp; "일"</f>
-        <v>16년 3개월 8일</v>
+        <v>16년 3개월 26일</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -2443,19 +2443,19 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6009</v>
+        <v>6027</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>16년 5개월</v>
+        <v>16년 6개월</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>16년 5개월 12일</v>
+        <v>16년 6개월 0일</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6708</v>
+        <v>6726</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>18년 4개월 11일</v>
+        <v>18년 4개월 29일</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7315</v>
+        <v>7333</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>20년 0개월 10일</v>
+        <v>20년 0개월 28일</v>
       </c>
     </row>
   </sheetData>
@@ -2704,17 +2704,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="B2" s="21">
         <f ca="1">TODAY()</f>
-        <v>42264</v>
+        <v>42282</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3111,14 +3111,14 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="2:7" ht="26.25">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="2" t="s">
@@ -3351,7 +3351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3362,14 +3362,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3552,7 +3552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
@@ -3564,12 +3564,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
@@ -3682,11 +3682,11 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="2" t="s">
@@ -3781,13 +3781,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1"/>
@@ -3914,14 +3914,14 @@
       <c r="F10" s="8"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="2" t="s">
@@ -4007,12 +4007,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
@@ -4125,11 +4125,11 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="2" t="s">
@@ -4222,24 +4222,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
@@ -4679,17 +4679,17 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="2:10" ht="31.5">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="4" t="s">
@@ -5020,17 +5020,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="15" t="s">
@@ -5307,7 +5307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
@@ -5318,17 +5318,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="26.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="2" t="s">
@@ -5626,16 +5626,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
